--- a/biology/Botanique/Boletus_hiratsukae/Boletus_hiratsukae.xlsx
+++ b/biology/Botanique/Boletus_hiratsukae/Boletus_hiratsukae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boletus hiratsukae, est un champignon appartenant aux basidiomycètes du genre Boletus dans la famille des Boletaceae. Il a été décrit pour la première fois du Japon par Eiji Nagasawa en 1994 et dédié au professeur Naohidé Hiratsuka. Ce cèpe proche de Boletus edulis, identifié dans un des cinq clades d'edulis sensu lato, se caractérise par une cuticule de couleur gris-violet puis brune et un pied réticulé aux abords de l'hyménium. 
 </t>
@@ -511,9 +523,11 @@
           <t>Taxinomie et synonymes hétérotypiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boletus hiratsukae Nagasawa (1994) [1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boletus hiratsukae Nagasawa (1994) . 
 Ne pas confondre avec le synonyme hétérotypique : Boletellus hiratsukae Nagasawa in Singer 1986 (nom. nud.), renommé Boletellus elatus.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Classement Phylogénétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clade des Edulis sensus lato[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clade des Edulis sensus lato
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Chapeau convexe de 6 à 15 cm, s'étalant à la croissance. Cuticule gris-violacé, puis franchement gris foncé à brun avec l'âge.
 Chair : blanche, immuable à la coupe. Odeur imperceptible.
@@ -608,7 +626,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Japon. Mycorhize avec Pinus et Quercus
 </t>
@@ -639,7 +659,9 @@
           <t>Saison</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Automne
 </t>
@@ -670,7 +692,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Excellent comestible [référence ?]. Espèce nouvelle, jusqu'ici endémique du Japon et plutôt rare, sans tradition mycophagique.
 </t>
@@ -701,7 +725,9 @@
           <t>Confusion possible</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec Boletus reticulatus, mais son stipe est fortement réticulé.
 Avec Boletus violaceofuscus
